--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0060/1/template_RP0060.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0060/1/template_RP0060.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\svn\TMQ_NEW\CommonTemplate\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0060\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\tmq\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0060\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AE3BB4-ABD0-4162-9749-0AFEA0BA3485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FC244D-D476-4165-B8A4-3D43A16FCE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機器別管理基準" sheetId="5" r:id="rId1"/>
@@ -632,13 +632,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>点検グレード</t>
-    <rPh sb="0" eb="2">
-      <t>テンケン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>定期検査･診断</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -999,6 +992,13 @@
       <t>ヒヅケ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保全方式</t>
+    <rPh sb="0" eb="4">
+      <t>ホゼンホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -1632,35 +1632,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1671,6 +1650,48 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1680,13 +1701,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1716,15 +1731,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1732,15 +1738,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1752,32 +1749,35 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1800,7 +1800,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="表紙0"/>
@@ -1889,7 +1889,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="検討用"/>
@@ -4547,7 +4547,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="97甲乙(新組織ﾍﾞｰｽ)"/>
@@ -4560,7 +4560,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ＴＭＱⅢシステム見積表紙"/>
@@ -4910,7 +4910,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="現総合表"/>
@@ -4923,7 +4923,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="SN2機器リスト"/>
@@ -4951,7 +4951,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="調査票Ⅰ～Ⅲ"/>
@@ -5272,7 +5272,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="昇進ﾃｰﾌﾞﾙ1"/>
@@ -5289,7 +5289,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="項目一覧(SAP版)"/>
@@ -5764,7 +5764,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="１．InfoCube (YKCH0010)案１"/>
@@ -7197,7 +7197,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="現総合表"/>
@@ -7210,7 +7210,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="表紙1"/>
@@ -7255,7 +7255,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="97甲乙(新組織ﾍﾞｰｽ)"/>
@@ -7268,7 +7268,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="SD"/>
@@ -7550,7 +7550,9 @@
   </sheetPr>
   <dimension ref="A1:BA41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7564,10 +7566,11 @@
     <col min="12" max="12" width="10.75" style="27" customWidth="1"/>
     <col min="13" max="17" width="4.25" style="27" customWidth="1"/>
     <col min="18" max="18" width="4.625" style="27" customWidth="1"/>
-    <col min="19" max="22" width="9.5" style="27" customWidth="1"/>
+    <col min="19" max="21" width="9.5" style="27" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" style="27" customWidth="1"/>
     <col min="23" max="25" width="6.375" style="27" customWidth="1"/>
     <col min="26" max="26" width="7" style="27" customWidth="1"/>
-    <col min="27" max="29" width="9.5" style="27" customWidth="1"/>
+    <col min="27" max="29" width="9.5" style="27" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="8.875" style="27" customWidth="1"/>
     <col min="31" max="32" width="8.5" style="27" customWidth="1"/>
     <col min="33" max="33" width="9.125" style="27" customWidth="1"/>
@@ -9535,13 +9538,13 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -9626,26 +9629,26 @@
       <c r="BA3" s="6"/>
     </row>
     <row r="4" spans="1:53" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="84" t="s">
-        <v>37</v>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
+        <v>36</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="51" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="51" t="s">
+      <c r="J4" s="46"/>
+      <c r="K4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="53"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="1"/>
       <c r="O4" s="2"/>
       <c r="W4" s="1"/>
@@ -9664,36 +9667,36 @@
       <c r="BA4" s="6"/>
     </row>
     <row r="5" spans="1:53" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="53"/>
+      <c r="L5" s="46"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -9720,32 +9723,32 @@
       <c r="BA5" s="6"/>
     </row>
     <row r="6" spans="1:53" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="59"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -9754,7 +9757,7 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF6" s="10"/>
       <c r="AG6" s="3"/>
@@ -9827,70 +9830,70 @@
     </row>
     <row r="8" spans="1:53" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17"/>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="78" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="69" t="s">
+      <c r="J8" s="56"/>
+      <c r="K8" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="57"/>
+      <c r="M8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="69" t="s">
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="69" t="s">
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="69" t="s">
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="51" t="s">
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="61"/>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="61"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
       <c r="AU8" s="6"/>
       <c r="AV8" s="6"/>
       <c r="AW8" s="6"/>
@@ -9901,52 +9904,52 @@
     </row>
     <row r="9" spans="1:53" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="56"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="63"/>
       <c r="AL9" s="18"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="58"/>
-      <c r="AO9" s="58"/>
-      <c r="AP9" s="58"/>
-      <c r="AQ9" s="58"/>
-      <c r="AR9" s="58"/>
-      <c r="AS9" s="58"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
       <c r="AU9" s="6"/>
       <c r="AV9" s="6"/>
       <c r="AW9" s="6"/>
@@ -9957,87 +9960,87 @@
     </row>
     <row r="10" spans="1:53" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="62" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="21" t="s">
+      <c r="T10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="U10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="V10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="V10" s="22" t="s">
+      <c r="W10" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE10" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="W10" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE10" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="24" t="s">
+      <c r="AN10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AN10" s="24" t="s">
+      <c r="AO10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AO10" s="24" t="s">
+      <c r="AP10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AP10" s="24" t="s">
+      <c r="AQ10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AQ10" s="24" t="s">
+      <c r="AR10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AR10" s="24" t="s">
+      <c r="AS10" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="AS10" s="24" t="s">
-        <v>31</v>
       </c>
       <c r="AU10" s="6"/>
       <c r="AV10" s="6"/>
@@ -10049,80 +10052,80 @@
     </row>
     <row r="11" spans="1:53" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="35" t="s">
-        <v>59</v>
+      <c r="H11" s="36" t="s">
+        <v>39</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="I11" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="J11" s="86"/>
+      <c r="K11" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="43" t="s">
+      <c r="L11" s="87"/>
+      <c r="M11" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="45" t="s">
-        <v>55</v>
+      <c r="V11" s="38" t="s">
+        <v>51</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="37" t="s">
-        <v>54</v>
+      <c r="W11" s="80" t="s">
+        <v>47</v>
       </c>
-      <c r="T11" s="37" t="s">
-        <v>53</v>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="37" t="s">
+        <v>48</v>
       </c>
-      <c r="U11" s="37" t="s">
+      <c r="AB11" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC11" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD11" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE11" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="V11" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="W11" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB11" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC11" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD11" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE11" s="45" t="s">
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="46"/>
-      <c r="AH11" s="40" t="s">
+      <c r="AI11" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="AI11" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="42"/>
+      <c r="AJ11" s="81"/>
+      <c r="AK11" s="82"/>
       <c r="AL11" s="25"/>
       <c r="AM11" s="26"/>
       <c r="AN11" s="26"/>
@@ -10150,42 +10153,42 @@
     </row>
     <row r="12" spans="1:53" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="35"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="46"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="89"/>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
       <c r="U12" s="37"/>
       <c r="V12" s="38"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="46"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="89"/>
       <c r="AA12" s="37"/>
       <c r="AB12" s="37"/>
       <c r="AC12" s="37"/>
       <c r="AD12" s="39"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="46"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="89"/>
       <c r="AH12" s="40"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="42"/>
+      <c r="AI12" s="80"/>
+      <c r="AJ12" s="81"/>
+      <c r="AK12" s="82"/>
       <c r="AL12" s="25"/>
       <c r="AM12" s="29"/>
       <c r="AN12" s="29"/>
@@ -10213,42 +10216,42 @@
     </row>
     <row r="13" spans="1:53" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="35"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="46"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="89"/>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
       <c r="U13" s="37"/>
       <c r="V13" s="38"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="46"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="89"/>
       <c r="AA13" s="37"/>
       <c r="AB13" s="37"/>
       <c r="AC13" s="37"/>
       <c r="AD13" s="39"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="46"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="89"/>
       <c r="AH13" s="40"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="42"/>
+      <c r="AI13" s="80"/>
+      <c r="AJ13" s="81"/>
+      <c r="AK13" s="82"/>
       <c r="AL13" s="25"/>
       <c r="AM13" s="29"/>
       <c r="AN13" s="29"/>
@@ -10276,42 +10279,42 @@
     </row>
     <row r="14" spans="1:53" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="35"/>
       <c r="H14" s="36"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="46"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="89"/>
       <c r="S14" s="37"/>
       <c r="T14" s="37"/>
       <c r="U14" s="37"/>
       <c r="V14" s="38"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="46"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="89"/>
       <c r="AA14" s="37"/>
       <c r="AB14" s="37"/>
       <c r="AC14" s="37"/>
       <c r="AD14" s="39"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="46"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="89"/>
       <c r="AH14" s="40"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="42"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="82"/>
       <c r="AL14" s="25"/>
       <c r="AM14" s="30"/>
       <c r="AN14" s="30"/>
@@ -10323,42 +10326,42 @@
     </row>
     <row r="15" spans="1:53" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="35"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="46"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="89"/>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
       <c r="V15" s="38"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="46"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="89"/>
       <c r="AA15" s="37"/>
       <c r="AB15" s="37"/>
       <c r="AC15" s="37"/>
       <c r="AD15" s="39"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="46"/>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="89"/>
       <c r="AH15" s="40"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="42"/>
+      <c r="AI15" s="80"/>
+      <c r="AJ15" s="81"/>
+      <c r="AK15" s="82"/>
       <c r="AL15" s="25"/>
       <c r="AM15" s="29"/>
       <c r="AN15" s="29"/>
@@ -10370,42 +10373,42 @@
     </row>
     <row r="16" spans="1:53" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="35"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="46"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="89"/>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="37"/>
       <c r="V16" s="38"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="46"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="89"/>
       <c r="AA16" s="37"/>
       <c r="AB16" s="37"/>
       <c r="AC16" s="37"/>
       <c r="AD16" s="39"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="46"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="89"/>
       <c r="AH16" s="40"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="42"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="81"/>
+      <c r="AK16" s="82"/>
       <c r="AL16" s="25"/>
       <c r="AM16" s="31"/>
       <c r="AN16" s="31"/>
@@ -10417,42 +10420,42 @@
     </row>
     <row r="17" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="35"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="46"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="89"/>
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
       <c r="V17" s="38"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="46"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="89"/>
       <c r="AA17" s="37"/>
       <c r="AB17" s="37"/>
       <c r="AC17" s="37"/>
       <c r="AD17" s="39"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="46"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="89"/>
       <c r="AH17" s="40"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="42"/>
+      <c r="AI17" s="80"/>
+      <c r="AJ17" s="81"/>
+      <c r="AK17" s="82"/>
       <c r="AL17" s="25"/>
       <c r="AM17" s="30"/>
       <c r="AN17" s="30"/>
@@ -10464,42 +10467,42 @@
     </row>
     <row r="18" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="34"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="35"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="46"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="89"/>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
       <c r="U18" s="37"/>
       <c r="V18" s="38"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="46"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="89"/>
       <c r="AA18" s="37"/>
       <c r="AB18" s="37"/>
       <c r="AC18" s="37"/>
       <c r="AD18" s="39"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="46"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="89"/>
       <c r="AH18" s="40"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="42"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="82"/>
       <c r="AL18" s="25"/>
       <c r="AM18" s="29"/>
       <c r="AN18" s="29"/>
@@ -10511,42 +10514,42 @@
     </row>
     <row r="19" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="34"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="46"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="89"/>
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
       <c r="U19" s="37"/>
       <c r="V19" s="38"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="46"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="89"/>
       <c r="AA19" s="37"/>
       <c r="AB19" s="37"/>
       <c r="AC19" s="37"/>
       <c r="AD19" s="39"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="46"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="89"/>
       <c r="AH19" s="40"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="42"/>
+      <c r="AI19" s="80"/>
+      <c r="AJ19" s="81"/>
+      <c r="AK19" s="82"/>
       <c r="AL19" s="25"/>
       <c r="AM19" s="31"/>
       <c r="AN19" s="31"/>
@@ -10558,160 +10561,160 @@
     </row>
     <row r="20" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="34"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="35"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="46"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="89"/>
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
       <c r="U20" s="37"/>
       <c r="V20" s="38"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="46"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="89"/>
       <c r="AA20" s="37"/>
       <c r="AB20" s="37"/>
       <c r="AC20" s="37"/>
       <c r="AD20" s="39"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="46"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="89"/>
       <c r="AH20" s="40"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="42"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="82"/>
       <c r="AL20" s="25"/>
       <c r="AM20" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN20" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AN20" s="31" t="s">
+      <c r="AO20" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AO20" s="31" t="s">
-        <v>34</v>
-      </c>
       <c r="AP20" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AQ20" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AR20" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AS20" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="34"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="35"/>
       <c r="H21" s="36"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="46"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="89"/>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
       <c r="U21" s="37"/>
       <c r="V21" s="38"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="46"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="89"/>
       <c r="AA21" s="37"/>
       <c r="AB21" s="37"/>
       <c r="AC21" s="37"/>
       <c r="AD21" s="39"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="46"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="89"/>
       <c r="AH21" s="40"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="42"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="81"/>
+      <c r="AK21" s="82"/>
       <c r="AL21" s="25"/>
       <c r="AM21" s="31"/>
       <c r="AN21" s="31"/>
       <c r="AO21" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AP21" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AQ21" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AR21" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AS21" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="34"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="35"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="46"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="89"/>
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
       <c r="V22" s="38"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="46"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="89"/>
       <c r="AA22" s="37"/>
       <c r="AB22" s="37"/>
       <c r="AC22" s="37"/>
       <c r="AD22" s="39"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="46"/>
+      <c r="AE22" s="80"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="89"/>
       <c r="AH22" s="40"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="42"/>
+      <c r="AI22" s="80"/>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="82"/>
       <c r="AL22" s="25"/>
       <c r="AM22" s="30"/>
       <c r="AN22" s="30"/>
@@ -10723,42 +10726,42 @@
     </row>
     <row r="23" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="34"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="35"/>
       <c r="H23" s="36"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="46"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="89"/>
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
       <c r="V23" s="38"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="46"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="89"/>
       <c r="AA23" s="37"/>
       <c r="AB23" s="37"/>
       <c r="AC23" s="37"/>
       <c r="AD23" s="39"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="46"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="89"/>
       <c r="AH23" s="40"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="42"/>
+      <c r="AI23" s="80"/>
+      <c r="AJ23" s="81"/>
+      <c r="AK23" s="82"/>
       <c r="AL23" s="25"/>
       <c r="AM23" s="29"/>
       <c r="AN23" s="29"/>
@@ -10770,42 +10773,42 @@
     </row>
     <row r="24" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="34"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="35"/>
       <c r="H24" s="36"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="46"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="89"/>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
       <c r="U24" s="37"/>
       <c r="V24" s="38"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="46"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="89"/>
       <c r="AA24" s="37"/>
       <c r="AB24" s="37"/>
       <c r="AC24" s="37"/>
       <c r="AD24" s="39"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="46"/>
+      <c r="AE24" s="80"/>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="89"/>
       <c r="AH24" s="40"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="42"/>
+      <c r="AI24" s="80"/>
+      <c r="AJ24" s="81"/>
+      <c r="AK24" s="82"/>
       <c r="AL24" s="25"/>
       <c r="AM24" s="31"/>
       <c r="AN24" s="31"/>
@@ -10817,42 +10820,42 @@
     </row>
     <row r="25" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="34"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="35"/>
       <c r="H25" s="36"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="46"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="89"/>
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
       <c r="U25" s="37"/>
       <c r="V25" s="38"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
-      <c r="Z25" s="46"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="89"/>
       <c r="AA25" s="37"/>
       <c r="AB25" s="37"/>
       <c r="AC25" s="37"/>
       <c r="AD25" s="39"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="46"/>
+      <c r="AE25" s="80"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="89"/>
       <c r="AH25" s="40"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="47"/>
-      <c r="AK25" s="42"/>
+      <c r="AI25" s="80"/>
+      <c r="AJ25" s="81"/>
+      <c r="AK25" s="82"/>
       <c r="AL25" s="25"/>
       <c r="AM25" s="31"/>
       <c r="AN25" s="31"/>
@@ -10864,42 +10867,42 @@
     </row>
     <row r="26" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="34"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="35"/>
       <c r="H26" s="36"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="46"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="89"/>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
       <c r="U26" s="37"/>
       <c r="V26" s="38"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="46"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="89"/>
       <c r="AA26" s="37"/>
       <c r="AB26" s="37"/>
       <c r="AC26" s="37"/>
       <c r="AD26" s="39"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="46"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="89"/>
       <c r="AH26" s="40"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="42"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="81"/>
+      <c r="AK26" s="82"/>
       <c r="AL26" s="25"/>
       <c r="AM26" s="31"/>
       <c r="AN26" s="31"/>
@@ -10911,42 +10914,42 @@
     </row>
     <row r="27" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="34"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="35"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="46"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="89"/>
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
       <c r="U27" s="37"/>
       <c r="V27" s="38"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="46"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="89"/>
       <c r="AA27" s="37"/>
       <c r="AB27" s="37"/>
       <c r="AC27" s="37"/>
       <c r="AD27" s="39"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="46"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="89"/>
       <c r="AH27" s="40"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="47"/>
-      <c r="AK27" s="42"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="81"/>
+      <c r="AK27" s="82"/>
       <c r="AL27" s="25"/>
       <c r="AM27" s="30"/>
       <c r="AN27" s="30"/>
@@ -10958,42 +10961,42 @@
     </row>
     <row r="28" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="34"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="35"/>
       <c r="H28" s="36"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="46"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="89"/>
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
       <c r="U28" s="37"/>
       <c r="V28" s="38"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="46"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="89"/>
       <c r="AA28" s="37"/>
       <c r="AB28" s="37"/>
       <c r="AC28" s="37"/>
       <c r="AD28" s="39"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="46"/>
+      <c r="AE28" s="80"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="89"/>
       <c r="AH28" s="40"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="42"/>
+      <c r="AI28" s="80"/>
+      <c r="AJ28" s="81"/>
+      <c r="AK28" s="82"/>
       <c r="AL28" s="25"/>
       <c r="AM28" s="29"/>
       <c r="AN28" s="29"/>
@@ -11005,42 +11008,42 @@
     </row>
     <row r="29" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="34"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="85"/>
       <c r="G29" s="35"/>
       <c r="H29" s="36"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="46"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="89"/>
       <c r="S29" s="37"/>
       <c r="T29" s="37"/>
       <c r="U29" s="37"/>
       <c r="V29" s="38"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="46"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="89"/>
       <c r="AA29" s="37"/>
       <c r="AB29" s="37"/>
       <c r="AC29" s="37"/>
       <c r="AD29" s="39"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="41"/>
-      <c r="AG29" s="46"/>
+      <c r="AE29" s="80"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="89"/>
       <c r="AH29" s="40"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="42"/>
+      <c r="AI29" s="80"/>
+      <c r="AJ29" s="81"/>
+      <c r="AK29" s="82"/>
       <c r="AL29" s="25"/>
       <c r="AM29" s="31"/>
       <c r="AN29" s="31"/>
@@ -11052,42 +11055,42 @@
     </row>
     <row r="30" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="34"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
       <c r="G30" s="35"/>
       <c r="H30" s="36"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="46"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="89"/>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
       <c r="U30" s="37"/>
       <c r="V30" s="38"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="46"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="89"/>
       <c r="AA30" s="37"/>
       <c r="AB30" s="37"/>
       <c r="AC30" s="37"/>
       <c r="AD30" s="39"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="41"/>
-      <c r="AG30" s="46"/>
+      <c r="AE30" s="80"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="89"/>
       <c r="AH30" s="40"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="42"/>
+      <c r="AI30" s="80"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="82"/>
       <c r="AL30" s="25"/>
       <c r="AM30" s="31"/>
       <c r="AN30" s="31"/>
@@ -11099,42 +11102,42 @@
     </row>
     <row r="31" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="34"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="85"/>
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="46"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="89"/>
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
       <c r="V31" s="38"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="46"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="89"/>
       <c r="AA31" s="37"/>
       <c r="AB31" s="37"/>
       <c r="AC31" s="37"/>
       <c r="AD31" s="39"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="46"/>
+      <c r="AE31" s="80"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="89"/>
       <c r="AH31" s="40"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="42"/>
+      <c r="AI31" s="80"/>
+      <c r="AJ31" s="81"/>
+      <c r="AK31" s="82"/>
       <c r="AL31" s="25"/>
       <c r="AM31" s="31"/>
       <c r="AN31" s="31"/>
@@ -11146,217 +11149,217 @@
     </row>
     <row r="32" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="34"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
       <c r="G32" s="35"/>
       <c r="H32" s="36"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="46"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="89"/>
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
       <c r="U32" s="37"/>
       <c r="V32" s="38"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="46"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="89"/>
       <c r="AA32" s="37"/>
       <c r="AB32" s="37"/>
       <c r="AC32" s="37"/>
       <c r="AD32" s="39"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="46"/>
+      <c r="AE32" s="80"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="89"/>
       <c r="AH32" s="40"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="42"/>
+      <c r="AI32" s="80"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="82"/>
       <c r="AL32" s="25"/>
       <c r="AM32" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN32" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO32" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AN32" s="31" t="s">
+      <c r="AP32" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AO32" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP32" s="31" t="s">
-        <v>34</v>
-      </c>
       <c r="AQ32" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AR32" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AS32" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="34"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="35"/>
       <c r="H33" s="36"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="46"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="89"/>
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
       <c r="U33" s="37"/>
       <c r="V33" s="38"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="46"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="89"/>
       <c r="AA33" s="37"/>
       <c r="AB33" s="37"/>
       <c r="AC33" s="37"/>
       <c r="AD33" s="39"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="46"/>
+      <c r="AE33" s="80"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="89"/>
       <c r="AH33" s="40"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="47"/>
-      <c r="AK33" s="42"/>
+      <c r="AI33" s="80"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="82"/>
       <c r="AL33" s="25"/>
       <c r="AM33" s="31"/>
       <c r="AN33" s="31"/>
       <c r="AO33" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AP33" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AQ33" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AR33" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AS33" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="34"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
       <c r="G34" s="35"/>
       <c r="H34" s="36"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="46"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="89"/>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
       <c r="U34" s="37"/>
       <c r="V34" s="38"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="46"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="89"/>
       <c r="AA34" s="37"/>
       <c r="AB34" s="37"/>
       <c r="AC34" s="37"/>
       <c r="AD34" s="39"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="46"/>
+      <c r="AE34" s="80"/>
+      <c r="AF34" s="88"/>
+      <c r="AG34" s="89"/>
       <c r="AH34" s="40"/>
-      <c r="AI34" s="45"/>
-      <c r="AJ34" s="47"/>
-      <c r="AK34" s="42"/>
+      <c r="AI34" s="80"/>
+      <c r="AJ34" s="81"/>
+      <c r="AK34" s="82"/>
       <c r="AL34" s="25"/>
       <c r="AM34" s="31"/>
       <c r="AN34" s="31"/>
       <c r="AO34" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AP34" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AQ34" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AR34" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AS34" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="34"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
       <c r="G35" s="35"/>
       <c r="H35" s="36"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="46"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="89"/>
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
       <c r="U35" s="37"/>
       <c r="V35" s="38"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="46"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="88"/>
+      <c r="Y35" s="88"/>
+      <c r="Z35" s="89"/>
       <c r="AA35" s="37"/>
       <c r="AB35" s="37"/>
       <c r="AC35" s="37"/>
       <c r="AD35" s="39"/>
-      <c r="AE35" s="45"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="46"/>
+      <c r="AE35" s="80"/>
+      <c r="AF35" s="88"/>
+      <c r="AG35" s="89"/>
       <c r="AH35" s="40"/>
-      <c r="AI35" s="45"/>
-      <c r="AJ35" s="47"/>
-      <c r="AK35" s="42"/>
+      <c r="AI35" s="80"/>
+      <c r="AJ35" s="81"/>
+      <c r="AK35" s="82"/>
       <c r="AL35" s="25"/>
       <c r="AM35" s="30"/>
       <c r="AN35" s="30"/>
@@ -11368,42 +11371,42 @@
     </row>
     <row r="36" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="34"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="85"/>
       <c r="G36" s="35"/>
       <c r="H36" s="36"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="46"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="89"/>
       <c r="S36" s="37"/>
       <c r="T36" s="37"/>
       <c r="U36" s="37"/>
       <c r="V36" s="38"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="46"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="88"/>
+      <c r="Y36" s="88"/>
+      <c r="Z36" s="89"/>
       <c r="AA36" s="37"/>
       <c r="AB36" s="37"/>
       <c r="AC36" s="37"/>
       <c r="AD36" s="39"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="46"/>
+      <c r="AE36" s="80"/>
+      <c r="AF36" s="88"/>
+      <c r="AG36" s="89"/>
       <c r="AH36" s="40"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="47"/>
-      <c r="AK36" s="42"/>
+      <c r="AI36" s="80"/>
+      <c r="AJ36" s="81"/>
+      <c r="AK36" s="82"/>
       <c r="AL36" s="25"/>
       <c r="AM36" s="29"/>
       <c r="AN36" s="29"/>
@@ -11415,93 +11418,93 @@
     </row>
     <row r="37" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="34"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="85"/>
       <c r="G37" s="35"/>
       <c r="H37" s="36"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="46"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="89"/>
       <c r="S37" s="37"/>
       <c r="T37" s="37"/>
       <c r="U37" s="37"/>
       <c r="V37" s="38"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="46"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="88"/>
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="89"/>
       <c r="AA37" s="37"/>
       <c r="AB37" s="37"/>
       <c r="AC37" s="37"/>
       <c r="AD37" s="39"/>
-      <c r="AE37" s="45"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="46"/>
+      <c r="AE37" s="80"/>
+      <c r="AF37" s="88"/>
+      <c r="AG37" s="89"/>
       <c r="AH37" s="40"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="47"/>
-      <c r="AK37" s="42"/>
+      <c r="AI37" s="80"/>
+      <c r="AJ37" s="81"/>
+      <c r="AK37" s="82"/>
       <c r="AL37" s="25"/>
       <c r="AM37" s="31"/>
       <c r="AN37" s="31"/>
       <c r="AO37" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AP37" s="31"/>
       <c r="AQ37" s="31"/>
       <c r="AR37" s="31"/>
       <c r="AS37" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="34"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="85"/>
       <c r="G38" s="35"/>
       <c r="H38" s="36"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="46"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="89"/>
       <c r="S38" s="37"/>
       <c r="T38" s="37"/>
       <c r="U38" s="37"/>
       <c r="V38" s="38"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="46"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="88"/>
+      <c r="Y38" s="88"/>
+      <c r="Z38" s="89"/>
       <c r="AA38" s="37"/>
       <c r="AB38" s="37"/>
       <c r="AC38" s="37"/>
       <c r="AD38" s="39"/>
-      <c r="AE38" s="45"/>
-      <c r="AF38" s="41"/>
-      <c r="AG38" s="46"/>
+      <c r="AE38" s="80"/>
+      <c r="AF38" s="88"/>
+      <c r="AG38" s="89"/>
       <c r="AH38" s="40"/>
-      <c r="AI38" s="45"/>
-      <c r="AJ38" s="47"/>
-      <c r="AK38" s="42"/>
+      <c r="AI38" s="80"/>
+      <c r="AJ38" s="81"/>
+      <c r="AK38" s="82"/>
       <c r="AL38" s="25"/>
       <c r="AM38" s="31"/>
       <c r="AN38" s="31"/>
@@ -11513,42 +11516,42 @@
     </row>
     <row r="39" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="34"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="85"/>
       <c r="G39" s="35"/>
       <c r="H39" s="36"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="46"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="83"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="89"/>
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
       <c r="U39" s="37"/>
       <c r="V39" s="38"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="41"/>
-      <c r="Z39" s="46"/>
+      <c r="W39" s="80"/>
+      <c r="X39" s="88"/>
+      <c r="Y39" s="88"/>
+      <c r="Z39" s="89"/>
       <c r="AA39" s="37"/>
       <c r="AB39" s="37"/>
       <c r="AC39" s="37"/>
       <c r="AD39" s="39"/>
-      <c r="AE39" s="45"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="46"/>
+      <c r="AE39" s="80"/>
+      <c r="AF39" s="88"/>
+      <c r="AG39" s="89"/>
       <c r="AH39" s="40"/>
-      <c r="AI39" s="45"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="42"/>
+      <c r="AI39" s="80"/>
+      <c r="AJ39" s="81"/>
+      <c r="AK39" s="82"/>
       <c r="AL39" s="25"/>
       <c r="AM39" s="30"/>
       <c r="AN39" s="30"/>
@@ -11560,42 +11563,42 @@
     </row>
     <row r="40" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="34"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="85"/>
       <c r="G40" s="35"/>
       <c r="H40" s="36"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="46"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="89"/>
       <c r="S40" s="37"/>
       <c r="T40" s="37"/>
       <c r="U40" s="37"/>
       <c r="V40" s="38"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="46"/>
+      <c r="W40" s="80"/>
+      <c r="X40" s="88"/>
+      <c r="Y40" s="88"/>
+      <c r="Z40" s="89"/>
       <c r="AA40" s="37"/>
       <c r="AB40" s="37"/>
       <c r="AC40" s="37"/>
       <c r="AD40" s="39"/>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="41"/>
-      <c r="AG40" s="46"/>
+      <c r="AE40" s="80"/>
+      <c r="AF40" s="88"/>
+      <c r="AG40" s="89"/>
       <c r="AH40" s="40"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="42"/>
+      <c r="AI40" s="80"/>
+      <c r="AJ40" s="81"/>
+      <c r="AK40" s="82"/>
       <c r="AL40" s="25"/>
       <c r="AM40" s="29"/>
       <c r="AN40" s="29"/>
@@ -11607,42 +11610,42 @@
     </row>
     <row r="41" spans="1:45" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="85"/>
       <c r="G41" s="35"/>
       <c r="H41" s="36"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="46"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="89"/>
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
       <c r="U41" s="37"/>
       <c r="V41" s="38"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="46"/>
+      <c r="W41" s="80"/>
+      <c r="X41" s="88"/>
+      <c r="Y41" s="88"/>
+      <c r="Z41" s="89"/>
       <c r="AA41" s="37"/>
       <c r="AB41" s="37"/>
       <c r="AC41" s="37"/>
       <c r="AD41" s="39"/>
-      <c r="AE41" s="45"/>
-      <c r="AF41" s="41"/>
-      <c r="AG41" s="46"/>
+      <c r="AE41" s="80"/>
+      <c r="AF41" s="88"/>
+      <c r="AG41" s="89"/>
       <c r="AH41" s="40"/>
-      <c r="AI41" s="45"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="42"/>
+      <c r="AI41" s="80"/>
+      <c r="AJ41" s="81"/>
+      <c r="AK41" s="82"/>
       <c r="AL41" s="25"/>
       <c r="AM41" s="33"/>
       <c r="AN41" s="33"/>
@@ -11654,226 +11657,6 @@
     </row>
   </sheetData>
   <mergeCells count="241">
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="AE8:AH9"/>
-    <mergeCell ref="AI8:AK10"/>
-    <mergeCell ref="AM8:AS9"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:J10"/>
-    <mergeCell ref="K8:L10"/>
-    <mergeCell ref="M8:V9"/>
-    <mergeCell ref="W8:AD9"/>
-    <mergeCell ref="AI11:AK11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="W12:Z12"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AI13:AK13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="W14:Z14"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="AI14:AK14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AI15:AK15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AI16:AK16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AI17:AK17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AI19:AK19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AE20:AG20"/>
-    <mergeCell ref="AI20:AK20"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AE21:AG21"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="AI24:AK24"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AI25:AK25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AI26:AK26"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="W25:Z25"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AI27:AK27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AI28:AK28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AI29:AK29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="AE30:AG30"/>
-    <mergeCell ref="AI30:AK30"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="AE29:AG29"/>
-    <mergeCell ref="AI31:AK31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="AI32:AK32"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="AI33:AK33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="AE34:AG34"/>
-    <mergeCell ref="AI34:AK34"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="AI35:AK35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:R36"/>
-    <mergeCell ref="W36:Z36"/>
-    <mergeCell ref="AE36:AG36"/>
-    <mergeCell ref="AI36:AK36"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:R35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="AE35:AG35"/>
-    <mergeCell ref="AI37:AK37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:R38"/>
-    <mergeCell ref="W38:Z38"/>
-    <mergeCell ref="AE38:AG38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:R37"/>
-    <mergeCell ref="W37:Z37"/>
-    <mergeCell ref="AE37:AG37"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="K41:L41"/>
@@ -11895,6 +11678,226 @@
     <mergeCell ref="M39:R39"/>
     <mergeCell ref="W39:Z39"/>
     <mergeCell ref="AE39:AG39"/>
+    <mergeCell ref="AI37:AK37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:R38"/>
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="AE38:AG38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="W37:Z37"/>
+    <mergeCell ref="AE37:AG37"/>
+    <mergeCell ref="AI35:AK35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:R36"/>
+    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="AE36:AG36"/>
+    <mergeCell ref="AI36:AK36"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:R35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="AE35:AG35"/>
+    <mergeCell ref="AI33:AK33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="AE34:AG34"/>
+    <mergeCell ref="AI34:AK34"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="AE33:AG33"/>
+    <mergeCell ref="AI31:AK31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AI32:AK32"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="W31:Z31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="AI29:AK29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="AI30:AK30"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="AE29:AG29"/>
+    <mergeCell ref="AI27:AK27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AI28:AK28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AI25:AK25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AI26:AK26"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="W25:Z25"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="AI24:AK24"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AE21:AG21"/>
+    <mergeCell ref="AI19:AK19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="AI20:AK20"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AI17:AK17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AI18:AK18"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AI15:AK15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AI16:AK16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AI13:AK13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="W14:Z14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="AI14:AK14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AI11:AK11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="W12:Z12"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AI8:AK10"/>
+    <mergeCell ref="AM8:AS9"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="W10:Z10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:J10"/>
+    <mergeCell ref="K8:L10"/>
+    <mergeCell ref="M8:V9"/>
+    <mergeCell ref="W8:AD9"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="AE8:AH9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.43307086614173229" right="0.27559055118110237" top="0.6692913385826772" bottom="0.43307086614173229" header="0.43307086614173229" footer="0.19685039370078741"/>

--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0060/1/template_RP0060.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0060/1/template_RP0060.xlsx
@@ -11904,4 +11904,250 @@
   <pageSetup paperSize="9" scale="48" firstPageNumber="4" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100809DC7585110DF4581368E0B6EBB5804" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="6d76735ff653ca9ffd001cdff620266b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5b3155b1-6fa1-4135-8aca-e52746f1a591" xmlns:ns3="437fce05-2e49-470e-89a4-5d58939a516e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9b6294530e584be7512780dfe7f468a" ns2:_="" ns3:_="">
+    <xsd:import namespace="5b3155b1-6fa1-4135-8aca-e52746f1a591"/>
+    <xsd:import namespace="437fce05-2e49-470e-89a4-5d58939a516e"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5b3155b1-6fa1-4135-8aca-e52746f1a591" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="52106043-f6b2-4b05-87eb-45a4e68abec2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="21" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="437fce05-2e49-470e-89a4-5d58939a516e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{68bed60e-dcc1-4294-94b6-4acd9e8e791b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="437fce05-2e49-470e-89a4-5d58939a516e">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="コンテンツ タイプ"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="タイトル"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B272E11C-CC34-41BA-B1DD-95F5C74D14BB}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12130BC3-636C-48F2-88D0-14369C44C993}"/>
 </file>